--- a/Supp_Materials_v3.xlsx
+++ b/Supp_Materials_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (個人用)\Data_SSD_Nonpara_vs_Distributions\Rcode_4_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6AC33-40B6-45F4-943E-C07537D3A3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0CDD2-0CC6-41C8-9C77-560F0E77C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
